--- a/data/trans_dic/P1002-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P1002-Clase-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.05882574305711775</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.07144327799157925</v>
+        <v>0.07144327799157923</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.04522166864866569</v>
@@ -697,7 +697,7 @@
         <v>0.04730213151429212</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.05769163626533089</v>
+        <v>0.05769163626533088</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01964183275981239</v>
+        <v>0.02153670832178672</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02341438825955088</v>
+        <v>0.02294461474491285</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0219709272564865</v>
+        <v>0.02398359478160986</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02878707258027708</v>
+        <v>0.03019535016445324</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.03603593661752787</v>
+        <v>0.03660020380880931</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.04339546324320056</v>
+        <v>0.04312847279638259</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.03625572239108193</v>
+        <v>0.03647039559664961</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.05131870690016972</v>
+        <v>0.05151808022136397</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.03097466828359233</v>
+        <v>0.03242867677608292</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.0368656259595783</v>
+        <v>0.03596404905179432</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.03319988097611337</v>
+        <v>0.03257378538320407</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.04547361375731614</v>
+        <v>0.04583580188531874</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05540356907760177</v>
+        <v>0.05671648808523808</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.06366747192419113</v>
+        <v>0.06330331549590518</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.06048215222836539</v>
+        <v>0.06306962334836783</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.06558919027909647</v>
+        <v>0.06623502754089602</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.08966320816035848</v>
+        <v>0.09273061350725834</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1054860661466704</v>
+        <v>0.1037734728017486</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.08733135164830425</v>
+        <v>0.08838218708937781</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.09392577389237156</v>
+        <v>0.09431325882361602</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.06005649240442793</v>
+        <v>0.06196258754791459</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.07137361095691433</v>
+        <v>0.07029491394612025</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.0643411944923961</v>
+        <v>0.06549516735936864</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.07248718777214769</v>
+        <v>0.0735780845876632</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.04663720989888834</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.05307650465895427</v>
+        <v>0.05307650465895426</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01759850820251474</v>
+        <v>0.01813780141112494</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03048729702073826</v>
+        <v>0.02990470542465536</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02395230173448535</v>
+        <v>0.02234391822710516</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01467644968122217</v>
+        <v>0.01515358970143865</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04738238303984418</v>
+        <v>0.04830667066780026</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.06182763009394272</v>
+        <v>0.06358254564564622</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.03157166318066978</v>
+        <v>0.03186225227711999</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.0606060675778121</v>
+        <v>0.06097060406322852</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.03616225788356777</v>
+        <v>0.03727505763989643</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.05176448094771404</v>
+        <v>0.05224331644016599</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.03238180623965181</v>
+        <v>0.03108261409769684</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.03975480375299578</v>
+        <v>0.04120398598272471</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06338725350633988</v>
+        <v>0.06289052172484834</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0802616435207337</v>
+        <v>0.07726440288668063</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.06673373683643027</v>
+        <v>0.07101077961190955</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.04741411904931849</v>
+        <v>0.04706961546001689</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1013385974404858</v>
+        <v>0.1006571404744046</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1315626043783637</v>
+        <v>0.1343376132685581</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.08497550434526295</v>
+        <v>0.08199912442333858</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1109011167065946</v>
+        <v>0.1108200664787813</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.07195695718458039</v>
+        <v>0.07145137144819315</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.0927348878503714</v>
+        <v>0.09037864005416156</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.06605707679378629</v>
+        <v>0.06623842221041872</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.06975960629131936</v>
+        <v>0.07023612036409856</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.06053468960359119</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.07881385767065319</v>
+        <v>0.07881385767065316</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.1002111494917101</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.0365713741335371</v>
+        <v>0.03708791151513115</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06216869626869591</v>
+        <v>0.06187865638131898</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.04161744795085433</v>
+        <v>0.04091964976841223</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.05619368479671924</v>
+        <v>0.05661386586542946</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.05621404692350179</v>
+        <v>0.05882523822341133</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1251655251757443</v>
+        <v>0.121324967446087</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.08977215732729692</v>
+        <v>0.09836588606229377</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.06267713830106815</v>
+        <v>0.06535381344173423</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.04752497392498745</v>
+        <v>0.04680496339496674</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.08914710380302582</v>
+        <v>0.08844453765593942</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.05968849332966469</v>
+        <v>0.06038563329646931</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.06568361886292305</v>
+        <v>0.06521288941274182</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.07249680031283882</v>
+        <v>0.07086272897598332</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1115508731246839</v>
+        <v>0.1119103256321657</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.08649517308985492</v>
+        <v>0.08561390418267334</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1094095297638783</v>
+        <v>0.1076305643840316</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1546887113230128</v>
+        <v>0.1639784578533226</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2185877498047716</v>
+        <v>0.2211232767170024</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2097586685734604</v>
+        <v>0.2142670213966405</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1357359112658451</v>
+        <v>0.1382514721519808</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.08489404513700534</v>
+        <v>0.083387342238096</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1322141837018341</v>
+        <v>0.1326337774136092</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1016359108839195</v>
+        <v>0.1049030412874188</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1083064204312843</v>
+        <v>0.1060364723162105</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.05311378220002898</v>
+        <v>0.05280735207098436</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.06728031386017494</v>
+        <v>0.06891548988735156</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04214190450864744</v>
+        <v>0.04050772930956466</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.0503534998522108</v>
+        <v>0.0506302099148994</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.06501094503276621</v>
+        <v>0.06576677970305975</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.09611179903240742</v>
+        <v>0.09604912264779504</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.07952741136165178</v>
+        <v>0.07996324049193178</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.06577414996287585</v>
+        <v>0.06592342889609759</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.06200452195815458</v>
+        <v>0.06276529916118308</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.08449543812529728</v>
+        <v>0.08386266245085039</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.06214058873571176</v>
+        <v>0.0627216238312039</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.06019631622158288</v>
+        <v>0.06068256636594822</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.08021756499809019</v>
+        <v>0.07981815654792508</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1003802300332785</v>
+        <v>0.1012103800122379</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.06995579693992765</v>
+        <v>0.06751658165555507</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.07892065045084405</v>
+        <v>0.08016789131803395</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1060889050497607</v>
+        <v>0.1079793352687706</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1442513953945521</v>
+        <v>0.144666623482367</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1220221362080104</v>
+        <v>0.1241909411808372</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.09560867726057233</v>
+        <v>0.09722329113124986</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.08549738956013786</v>
+        <v>0.08563143779391086</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1131484541938635</v>
+        <v>0.1117145157914263</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.08699070321045364</v>
+        <v>0.0862968257433404</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.0807609356785996</v>
+        <v>0.08078948879846831</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.07365872115861188</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.0685696987190251</v>
+        <v>0.06856969871902509</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.08964764408425878</v>
@@ -1229,7 +1229,7 @@
         <v>0.1479388101378314</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.1366008302827567</v>
+        <v>0.1366008302827566</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.07772939857819587</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03556409717361179</v>
+        <v>0.03696612042305771</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.03846935646389482</v>
+        <v>0.03933140080786773</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.05473581233093874</v>
+        <v>0.05530528666935106</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.04991383214845897</v>
+        <v>0.05083204664719036</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.0666277702641581</v>
+        <v>0.06722393202988489</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1608941638202283</v>
+        <v>0.1628953237639258</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1209453898422024</v>
+        <v>0.1231667440372797</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1167057638404891</v>
+        <v>0.1171569998389978</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.06021311490950423</v>
+        <v>0.06113232716957291</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1163424559735252</v>
+        <v>0.1201104695230128</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.09766016754176744</v>
+        <v>0.09783552499614523</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.09483938647052849</v>
+        <v>0.09543205129132641</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.09148907127297309</v>
+        <v>0.09118047780128329</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.08253349724944918</v>
+        <v>0.08180995952539269</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.09670525214165844</v>
+        <v>0.09914434901979585</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.09098453749263277</v>
+        <v>0.08959436360214311</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1156938246305846</v>
+        <v>0.1160795527123604</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2191642115325709</v>
+        <v>0.2194387886665548</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1770046079596415</v>
+        <v>0.1728203558136183</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1576198204004085</v>
+        <v>0.1585184076573254</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.0976079689301922</v>
+        <v>0.09751858270306657</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1571079118289614</v>
+        <v>0.1579164174400852</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1345874076741692</v>
+        <v>0.1316022007780071</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1254219887267625</v>
+        <v>0.1240033799605524</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.01587260100762788</v>
+        <v>0.01877765486302261</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.02432739555814827</v>
+        <v>0.02449559440591475</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.01914648451906244</v>
+        <v>0.01880377970913785</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.02620886969270709</v>
+        <v>0.02000243701987051</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.07505129449106389</v>
+        <v>0.07551894167298751</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.126264561585594</v>
+        <v>0.1250035165590581</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.0929887087789556</v>
+        <v>0.09405092168913566</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1173009703502449</v>
+        <v>0.1171616228615576</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.06542076272369027</v>
+        <v>0.06622455451000615</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1079064316596335</v>
+        <v>0.1076179880017403</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.08036051535871601</v>
+        <v>0.08129384808197633</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1002668026459204</v>
+        <v>0.1005773232113957</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.06317597419503453</v>
+        <v>0.05874895127563363</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.07708118294710069</v>
+        <v>0.07731292051003148</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.06419122687283738</v>
+        <v>0.067847079788173</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1159690287155018</v>
+        <v>0.107897684586152</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1068308427506052</v>
+        <v>0.1075137978583441</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1669862205703457</v>
+        <v>0.168838648120414</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.136960237397888</v>
+        <v>0.1350778284600568</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1576409578966377</v>
+        <v>0.157202831336999</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.09410297450972811</v>
+        <v>0.0947694861157404</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.145544897317928</v>
+        <v>0.1453564068764423</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1157682549258327</v>
+        <v>0.1146199531153067</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1362331318103771</v>
+        <v>0.1392761664975342</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.05358025326963984</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.05747565262577935</v>
+        <v>0.05747565262577934</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.08458430184159904</v>
@@ -1513,7 +1513,7 @@
         <v>0.08088692699093789</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.0824431980323363</v>
+        <v>0.08244319803233628</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.04460224071666011</v>
+        <v>0.04523098389840441</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.05812260106581052</v>
+        <v>0.05762823236579762</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.04606679722393674</v>
+        <v>0.04581684350692093</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.050142582826601</v>
+        <v>0.04989643855416849</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.07553084983731034</v>
+        <v>0.07555694813477547</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1276105010268132</v>
+        <v>0.1282638162268963</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.09563336632886477</v>
+        <v>0.09591502678241733</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.09704295350297848</v>
+        <v>0.09741929127018278</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.06284825264327082</v>
+        <v>0.06244375366225875</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.09593162976373264</v>
+        <v>0.09614676303006378</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.07408901835345327</v>
+        <v>0.07437562704494488</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.07651965267122221</v>
+        <v>0.07716625386321985</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.0605807604682306</v>
+        <v>0.06063071429910209</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.0764693208398365</v>
+        <v>0.07562286613581749</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.06170113904586197</v>
+        <v>0.06303126002581579</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.06637298284501669</v>
+        <v>0.06599020587309878</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.09511291970802926</v>
+        <v>0.09539953689239879</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1514139936788332</v>
+        <v>0.1517685698201955</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1175164502641174</v>
+        <v>0.1174783049116893</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1154067189517512</v>
+        <v>0.1150919320939146</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.0748587411809053</v>
+        <v>0.0744897604213853</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.1114576426900879</v>
+        <v>0.1115017919846333</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.08743267901578111</v>
+        <v>0.0881055443260232</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.08802994558883438</v>
+        <v>0.08851650633400128</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>9306</v>
+        <v>10204</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>10215</v>
+        <v>10010</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>9428</v>
+        <v>10291</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>15851</v>
+        <v>16626</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>11052</v>
+        <v>11225</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>13646</v>
+        <v>13562</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>12583</v>
+        <v>12657</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>25065</v>
+        <v>25162</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>24174</v>
+        <v>25309</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>27676</v>
+        <v>26999</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>25768</v>
+        <v>25282</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>47248</v>
+        <v>47625</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>26249</v>
+        <v>26871</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>27776</v>
+        <v>27618</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>25952</v>
+        <v>27063</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>36115</v>
+        <v>36470</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>27498</v>
+        <v>28439</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>33171</v>
+        <v>32632</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>30309</v>
+        <v>30673</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>45874</v>
+        <v>46064</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>46872</v>
+        <v>48359</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>53582</v>
+        <v>52772</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>49938</v>
+        <v>50834</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>75316</v>
+        <v>76450</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>6457</v>
+        <v>6655</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>12768</v>
+        <v>12524</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>9035</v>
+        <v>8429</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>7092</v>
+        <v>7322</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>17620</v>
+        <v>17964</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>20898</v>
+        <v>21492</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>11753</v>
+        <v>11861</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>25645</v>
+        <v>25799</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>26717</v>
+        <v>27539</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>39176</v>
+        <v>39538</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>24270</v>
+        <v>23296</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>36032</v>
+        <v>37345</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>23259</v>
+        <v>23077</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>33613</v>
+        <v>32358</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>25174</v>
+        <v>26787</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>22911</v>
+        <v>22745</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>37684</v>
+        <v>37431</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>44470</v>
+        <v>45408</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>31634</v>
+        <v>30526</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>46927</v>
+        <v>46893</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>53162</v>
+        <v>52788</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>70183</v>
+        <v>68399</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>49510</v>
+        <v>49646</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>63227</v>
+        <v>63659</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>19836</v>
+        <v>20116</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>39130</v>
+        <v>38947</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>21721</v>
+        <v>21357</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>26502</v>
+        <v>26700</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>9432</v>
+        <v>9870</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>32559</v>
+        <v>31560</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>14913</v>
+        <v>16341</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>11752</v>
+        <v>12254</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>33751</v>
+        <v>33240</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>79300</v>
+        <v>78675</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>41068</v>
+        <v>41547</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>43293</v>
+        <v>42982</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>39321</v>
+        <v>38435</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>70212</v>
+        <v>70438</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>45143</v>
+        <v>44683</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>51599</v>
+        <v>50760</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>25954</v>
+        <v>27513</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>56861</v>
+        <v>57521</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>34846</v>
+        <v>35595</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>25450</v>
+        <v>25922</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>60289</v>
+        <v>59219</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>117610</v>
+        <v>117984</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>69929</v>
+        <v>72177</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>71386</v>
+        <v>69890</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>65773</v>
+        <v>65393</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>77978</v>
+        <v>79874</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>48448</v>
+        <v>46569</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>56932</v>
+        <v>57245</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>46436</v>
+        <v>46976</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>73685</v>
+        <v>73637</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>65680</v>
+        <v>66040</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>56625</v>
+        <v>56753</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>121071</v>
+        <v>122557</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>162710</v>
+        <v>161492</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>122760</v>
+        <v>123907</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>119883</v>
+        <v>120851</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>99336</v>
+        <v>98842</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>116342</v>
+        <v>117304</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>80424</v>
+        <v>77620</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>89231</v>
+        <v>90641</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>75778</v>
+        <v>77128</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>110591</v>
+        <v>110910</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>100775</v>
+        <v>102566</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>82309</v>
+        <v>83699</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>166944</v>
+        <v>167206</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>217886</v>
+        <v>215125</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>171851</v>
+        <v>170481</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>160838</v>
+        <v>160895</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>12467</v>
+        <v>12959</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>19602</v>
+        <v>20041</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>33975</v>
+        <v>34328</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>28349</v>
+        <v>28871</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>37895</v>
+        <v>38234</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>122203</v>
+        <v>123723</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>89287</v>
+        <v>90927</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>96900</v>
+        <v>97274</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>55354</v>
+        <v>56199</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>147646</v>
+        <v>152428</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>132715</v>
+        <v>132954</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>132609</v>
+        <v>133438</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>32072</v>
+        <v>31964</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>42054</v>
+        <v>41686</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>60026</v>
+        <v>61539</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>51676</v>
+        <v>50886</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>65801</v>
+        <v>66020</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>166460</v>
+        <v>166669</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>130673</v>
+        <v>127584</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>130870</v>
+        <v>131616</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>89732</v>
+        <v>89650</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>199380</v>
+        <v>200406</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>182898</v>
+        <v>178841</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>175372</v>
+        <v>173388</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>4733</v>
+        <v>5600</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>6493</v>
+        <v>6537</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>5498</v>
+        <v>5399</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>6217</v>
+        <v>4745</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>93721</v>
+        <v>94305</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>140072</v>
+        <v>138673</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>100616</v>
+        <v>101765</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>98915</v>
+        <v>98797</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>101203</v>
+        <v>102447</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>148504</v>
+        <v>148107</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>110027</v>
+        <v>111305</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>108337</v>
+        <v>108672</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>18839</v>
+        <v>17519</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>20572</v>
+        <v>20633</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>18432</v>
+        <v>19482</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>27511</v>
+        <v>25596</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>133406</v>
+        <v>134259</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>185246</v>
+        <v>187301</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>148194</v>
+        <v>146158</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>132932</v>
+        <v>132563</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>145574</v>
+        <v>146605</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>200304</v>
+        <v>200044</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>158506</v>
+        <v>156934</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>147198</v>
+        <v>150486</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>145858</v>
+        <v>147914</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>198775</v>
+        <v>197084</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>155969</v>
+        <v>155123</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>172554</v>
+        <v>171707</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>255153</v>
+        <v>255241</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>452778</v>
+        <v>455096</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>337738</v>
+        <v>338733</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>352605</v>
+        <v>353972</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>417835</v>
+        <v>415146</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>668456</v>
+        <v>669955</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>512497</v>
+        <v>514480</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>541358</v>
+        <v>545933</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>198111</v>
+        <v>198274</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>261519</v>
+        <v>258624</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>208903</v>
+        <v>213406</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>228408</v>
+        <v>227090</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>321303</v>
+        <v>322271</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>537236</v>
+        <v>538494</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>415021</v>
+        <v>414886</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>419329</v>
+        <v>418185</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>497684</v>
+        <v>495231</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>776642</v>
+        <v>776949</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>604800</v>
+        <v>609454</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>622791</v>
+        <v>626233</v>
       </c>
     </row>
     <row r="32">
